--- a/M2.xlsx
+++ b/M2.xlsx
@@ -496,42 +496,42 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-09-07 00:00:00</t>
+          <t>Semaine du 2020-09-14 00:00:00</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-09-14 00:00:00</t>
+          <t>Semaine du 2020-09-21 00:00:00</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-09-21 00:00:00</t>
+          <t>Semaine du 2020-09-28 00:00:00</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-09-28 00:00:00</t>
+          <t>Semaine du 2020-10-05 00:00:00</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-10-05 00:00:00</t>
+          <t>Semaine du 2020-10-12 00:00:00</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-10-12 00:00:00</t>
+          <t>Semaine du 2020-10-19 00:00:00</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-10-19 00:00:00</t>
+          <t>Semaine du 2020-10-26 00:00:00</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Semaine du 2020-10-26 00:00:00</t>
+          <t>Semaine du 2020-11-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -552,6 +552,16 @@
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -569,12 +579,7 @@
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -592,7 +597,12 @@
           <t xml:space="preserve">M2,system d'exploitation,sidi hmetti </t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -610,7 +620,7 @@
           <t xml:space="preserve">M2,system d'exploitation,sidi hmetti </t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -628,16 +638,6 @@
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -653,6 +653,16 @@
       <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
     </row>
@@ -668,17 +678,7 @@
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
-        </is>
-      </c>
       <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -701,9 +701,14 @@
           <t>M2,system d'exploitation,sidi hmetti</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
     </row>
@@ -719,9 +724,9 @@
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
         </is>
       </c>
     </row>
@@ -737,7 +742,7 @@
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -757,6 +762,11 @@
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
     </row>
@@ -767,24 +777,9 @@
           <t>10h-12h</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M2,technologie web,harouna ba </t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
-        </is>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
         </is>
       </c>
     </row>
@@ -795,17 +790,12 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M2,technologie web,harouna ba </t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -818,11 +808,6 @@
           <t>14h-16h</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
@@ -831,9 +816,9 @@
           <t>16h-18h</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -851,11 +836,6 @@
       <c r="B17" s="3" t="inlineStr">
         <is>
           <t>08h-10h</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
     </row>
@@ -871,14 +851,9 @@
           <t xml:space="preserve">M2,technologie web,harouna ba </t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
-        </is>
-      </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
+          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
@@ -894,14 +869,19 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M2,system d'exploitation,sidi hmetti </t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>M2,technologie web,harouna ba</t>
+          <t>M2,system d'exploitation,sidi hmetti</t>
         </is>
       </c>
     </row>
@@ -912,19 +892,24 @@
           <t>14h-16h</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M2,system d'exploitation,sidi hmetti </t>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>M2,system d'exploitation,sidi hmetti</t>
+          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
           <t>M2,system d'exploitation,sidi hmetti</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>M2,technologie web,harouna ba</t>
         </is>
       </c>
     </row>
@@ -935,9 +920,19 @@
           <t>16h-18h</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>M2,technologie web,harouna ba</t>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M2,system d'exploitation,sidi hmetti </t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
         </is>
       </c>
     </row>
@@ -952,7 +947,7 @@
           <t>08h-10h</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
@@ -965,7 +960,12 @@
           <t>10h-12h</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>M2,system d'exploitation,sidi hmetti</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>M2,technologie web,harouna ba</t>
         </is>
